--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303580.0039790322</v>
+        <v>303580.0039790323</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3013503.893776012</v>
+        <v>3013503.893776015</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20373567.1449482</v>
+        <v>20373567.14494819</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4790382.659738132</v>
+        <v>4790382.659738131</v>
       </c>
     </row>
     <row r="11">
@@ -1841,76 +1841,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="G17" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="H17" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="I17" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="U18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S18" t="n">
+      <c r="V18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
       <c r="W18" t="n">
-        <v>24.30129424928645</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>22.44875936050941</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="W19" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="X19" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,67 +2081,67 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2163,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>52.20357801874876</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>86.20649128496198</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,73 +2315,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>202.2946864288972</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2400,25 +2400,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>77.15040666004174</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,19 +2445,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>63.88882306452221</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>50.46697834767983</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>17.57153846140836</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>11.01727716149734</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2843,22 +2843,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>58.77034251042111</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>150.9993436124999</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>220.2131257424249</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,10 +3171,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>116.325098768111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3463,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3503,16 +3503,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>9.234466016111838</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3585,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>32.02729053745298</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3700,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>177.9933921796108</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>213.4242636173429</v>
+        <v>177.9933921796109</v>
       </c>
       <c r="F41" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>70.93356809783197</v>
       </c>
       <c r="Y42" t="n">
-        <v>106.238736956606</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3895,64 +3895,64 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C17" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D17" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F17" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G17" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H17" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I17" t="n">
         <v>2.207202020825291</v>
@@ -5516,19 +5516,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L17" t="n">
-        <v>29.52132702853827</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M17" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N17" t="n">
-        <v>84.14957704396423</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O17" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
@@ -5558,7 +5558,7 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Y17" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="18">
@@ -5595,7 +5595,7 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L18" t="n">
         <v>29.52132702853827</v>
@@ -5604,7 +5604,7 @@
         <v>56.83545203625125</v>
       </c>
       <c r="N18" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O18" t="n">
         <v>110.3601010412646</v>
@@ -5616,22 +5616,22 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S18" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T18" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U18" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V18" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W18" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X18" t="n">
         <v>2.207202020825291</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C19" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D19" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F19" t="n">
         <v>2.207202020825291</v>
@@ -5692,31 +5692,31 @@
         <v>108.4888536788635</v>
       </c>
       <c r="Q19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="R19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="S19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="T19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="U19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="V19" t="n">
         <v>85.81333917329844</v>
       </c>
-      <c r="R19" t="n">
+      <c r="W19" t="n">
         <v>85.81333917329844</v>
       </c>
-      <c r="S19" t="n">
+      <c r="X19" t="n">
         <v>85.81333917329844</v>
       </c>
-      <c r="T19" t="n">
-        <v>85.81333917329844</v>
-      </c>
-      <c r="U19" t="n">
-        <v>85.81333917329844</v>
-      </c>
-      <c r="V19" t="n">
+      <c r="Y19" t="n">
         <v>57.94462678914073</v>
-      </c>
-      <c r="W19" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="X19" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C20" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>526.7184526376595</v>
+        <v>245.0892324518013</v>
       </c>
       <c r="C21" t="n">
-        <v>526.7184526376595</v>
+        <v>245.0892324518013</v>
       </c>
       <c r="D21" t="n">
-        <v>377.7840429764083</v>
+        <v>245.0892324518013</v>
       </c>
       <c r="E21" t="n">
-        <v>218.5465879709528</v>
+        <v>245.0892324518013</v>
       </c>
       <c r="F21" t="n">
-        <v>72.01202999783774</v>
+        <v>245.0892324518013</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>106.3584070344168</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5832,19 +5832,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V21" t="n">
-        <v>526.7184526376595</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W21" t="n">
-        <v>526.7184526376595</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X21" t="n">
-        <v>526.7184526376595</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y21" t="n">
-        <v>526.7184526376595</v>
+        <v>245.0892324518013</v>
       </c>
     </row>
     <row r="22">
@@ -5935,16 +5935,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>710.516763498309</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>586.8991275857741</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>497.8820279860555</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>262.7299197543128</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>526.7184526376595</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C27" t="n">
-        <v>526.7184526376595</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="D27" t="n">
-        <v>526.7184526376595</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,7 +6312,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>526.7184526376595</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>526.7184526376595</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X27" t="n">
-        <v>526.7184526376595</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y27" t="n">
-        <v>526.7184526376595</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="28">
@@ -6409,16 +6409,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y29" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>78.64512544397142</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W30" t="n">
-        <v>609.3459713618265</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X30" t="n">
-        <v>401.4944711562937</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="31">
@@ -6643,7 +6643,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>241.7186438601369</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6886,13 +6886,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
         <v>829.5248650203655</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.7447050367114</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T35" t="n">
-        <v>376.1934816808115</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U35" t="n">
-        <v>376.1934816808115</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V35" t="n">
-        <v>376.1934816808115</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W35" t="n">
-        <v>376.1934816808115</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X35" t="n">
-        <v>376.1934816808115</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y35" t="n">
-        <v>132.7447050367114</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7020,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>846.5570557448675</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W36" t="n">
-        <v>603.1082791007675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>395.2567788952347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>284.1276524520142</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C38" t="n">
-        <v>40.6788758079141</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D38" t="n">
-        <v>40.6788758079141</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E38" t="n">
-        <v>40.6788758079141</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F38" t="n">
-        <v>40.6788758079141</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G38" t="n">
-        <v>40.6788758079141</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H38" t="n">
-        <v>40.6788758079141</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>527.5764290961142</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U38" t="n">
-        <v>284.1276524520142</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V38" t="n">
-        <v>284.1276524520142</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W38" t="n">
-        <v>284.1276524520142</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X38" t="n">
-        <v>284.1276524520142</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y38" t="n">
-        <v>284.1276524520142</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>210.869396638348</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>210.869396638348</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>928.2922408909005</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>726.1056462496665</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>497.8820279860555</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>262.7299197543128</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>210.869396638348</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>210.869396638348</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>843.6054391011446</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="C41" t="n">
-        <v>628.0253748412023</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="D41" t="n">
-        <v>448.2340696092722</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="E41" t="n">
-        <v>232.6540053493298</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F41" t="n">
         <v>17.07394108938743</v>
@@ -7412,13 +7412,13 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>120.0889470003098</v>
+        <v>17.62165426160527</v>
       </c>
       <c r="L41" t="n">
-        <v>300.1647985849684</v>
+        <v>197.6975058462639</v>
       </c>
       <c r="M41" t="n">
-        <v>511.4548195661379</v>
+        <v>408.9875268274333</v>
       </c>
       <c r="N41" t="n">
         <v>614.8420490346726</v>
@@ -7442,19 +7442,19 @@
         <v>843.6054391011446</v>
       </c>
       <c r="U41" t="n">
-        <v>843.6054391011446</v>
+        <v>628.0253748412023</v>
       </c>
       <c r="V41" t="n">
-        <v>843.6054391011446</v>
+        <v>412.4453105812599</v>
       </c>
       <c r="W41" t="n">
-        <v>843.6054391011446</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="X41" t="n">
-        <v>843.6054391011446</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="Y41" t="n">
-        <v>843.6054391011446</v>
+        <v>196.8652463213176</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>107.3735702322309</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C42" t="n">
-        <v>107.3735702322309</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D42" t="n">
-        <v>107.3735702322309</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E42" t="n">
-        <v>107.3735702322309</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F42" t="n">
-        <v>107.3735702322309</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G42" t="n">
-        <v>107.3735702322309</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H42" t="n">
-        <v>107.3735702322309</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I42" t="n">
         <v>17.07394108938743</v>
@@ -7497,16 +7497,16 @@
         <v>353.7215221283943</v>
       </c>
       <c r="M42" t="n">
-        <v>390.368997361522</v>
+        <v>565.0115431095638</v>
       </c>
       <c r="N42" t="n">
-        <v>390.368997361522</v>
+        <v>776.3015640907333</v>
       </c>
       <c r="O42" t="n">
-        <v>601.6590183426915</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P42" t="n">
-        <v>784.3024959560423</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
@@ -7515,25 +7515,25 @@
         <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>853.6970544693717</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="T42" t="n">
-        <v>853.6970544693717</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="U42" t="n">
-        <v>853.6970544693717</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="V42" t="n">
-        <v>638.1169902094293</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="W42" t="n">
-        <v>422.536925949487</v>
+        <v>464.6996456600982</v>
       </c>
       <c r="X42" t="n">
-        <v>214.6854257439542</v>
+        <v>393.0495768744094</v>
       </c>
       <c r="Y42" t="n">
-        <v>107.3735702322309</v>
+        <v>185.2892781094555</v>
       </c>
     </row>
     <row r="43">
@@ -7600,19 +7600,19 @@
         <v>151.6062315796582</v>
       </c>
       <c r="U43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="V43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="X43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="44">
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L17" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
         <v>257.9362584875889</v>
       </c>
       <c r="N17" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>256.5734881866366</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,19 +9243,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
         <v>169.7240591823345</v>
       </c>
       <c r="N18" t="n">
-        <v>157.8169888482831</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O18" t="n">
-        <v>170.1862697047606</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,7 +9495,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9960,10 +9960,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,16 +10668,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.6430966734834</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,7 +11069,7 @@
         <v>443.7704968446156</v>
       </c>
       <c r="N41" t="n">
-        <v>333.8446085143028</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11145,19 +11145,19 @@
         <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
-        <v>179.1516856726523</v>
+        <v>355.5582975393612</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
-        <v>356.0205080617874</v>
+        <v>220.77350745317</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F17" t="n">
-        <v>382.574751492425</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>361.9366444067671</v>
       </c>
     </row>
     <row r="18">
@@ -23856,25 +23856,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>175.8634344455351</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W18" t="n">
-        <v>227.3936889116331</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X18" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23932,7 +23932,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.71328389118497</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23947,16 +23947,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>224.5476180635119</v>
+        <v>229.6888839633186</v>
       </c>
       <c r="W19" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="20">
@@ -23969,16 +23969,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>179.6356836433646</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,7 +24029,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24051,19 +24051,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>85.13993914446186</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>26.02895295153448</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24105,16 +24105,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>162.9782053421103</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24288,25 +24288,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>80.4946737953592</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,19 +24333,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>136.2759056302994</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309074</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>332.2668633158007</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>140.0735419939926</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>126.3262400017133</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24731,22 +24731,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24774,10 +24774,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>30.62629034099397</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,25 +24807,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>100.6956395484197</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24883,10 +24883,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E32" t="n">
-        <v>161.7172443298368</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,7 +24968,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25044,13 +25044,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,10 +25059,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>252.9439654637738</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,16 +25163,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,16 +25196,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25351,16 +25351,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25391,16 +25391,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,10 +25409,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>201.2414235542941</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25473,10 +25473,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>115.4177750271858</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25588,13 +25588,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,16 +25628,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>151.8486281536646</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>176.6896494410722</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>168.5061064549189</v>
+        <v>203.9369778926509</v>
       </c>
       <c r="F41" t="n">
-        <v>193.4517821243685</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25682,13 +25682,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>37.92138929049358</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>114.327994852792</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>135.8167051000701</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25725,7 +25725,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,16 +25764,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>19.37632353208235</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>134.8394171056455</v>
       </c>
       <c r="Y42" t="n">
-        <v>99.44395882069837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>507028.2310008513</v>
+        <v>507028.2310008514</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>507028.2310008515</v>
+        <v>507028.2310008513</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>507028.2310008513</v>
+        <v>507028.2310008515</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>507028.2310008513</v>
+        <v>507028.2310008514</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>507028.2310008515</v>
+        <v>507028.2310008511</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>507028.2310008513</v>
+        <v>507028.2310008511</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>69879.81359544014</v>
+      </c>
+      <c r="C2" t="n">
+        <v>69879.81359544014</v>
+      </c>
+      <c r="D2" t="n">
         <v>69879.81359544017</v>
-      </c>
-      <c r="C2" t="n">
-        <v>69879.81359544015</v>
-      </c>
-      <c r="D2" t="n">
-        <v>69879.81359544014</v>
       </c>
       <c r="E2" t="n">
         <v>69879.81359544017</v>
@@ -26326,22 +26326,22 @@
         <v>69879.81359544017</v>
       </c>
       <c r="G2" t="n">
-        <v>74945.90033124232</v>
+        <v>74945.90033124233</v>
       </c>
       <c r="H2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
         <v>108004.437145366</v>
@@ -26350,10 +26350,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>103759.0573236672</v>
+        <v>103759.0573236673</v>
       </c>
       <c r="P2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
     </row>
     <row r="3">
@@ -26436,7 +26436,7 @@
         <v>36022.33037502109</v>
       </c>
       <c r="I4" t="n">
-        <v>36022.3303750211</v>
+        <v>36022.33037502109</v>
       </c>
       <c r="J4" t="n">
         <v>36022.33037502109</v>
@@ -26454,7 +26454,7 @@
         <v>36022.33037502109</v>
       </c>
       <c r="O4" t="n">
-        <v>34575.07249607201</v>
+        <v>34575.07249607202</v>
       </c>
       <c r="P4" t="n">
         <v>23025.57528314837</v>
@@ -26519,13 +26519,13 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>13226.63831229177</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13226.63831229177</v>
+      </c>
+      <c r="D6" t="n">
         <v>13226.6383122918</v>
-      </c>
-      <c r="C6" t="n">
-        <v>13226.63831229178</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13226.63831229177</v>
       </c>
       <c r="E6" t="n">
         <v>46854.2383122918</v>
@@ -26534,34 +26534,34 @@
         <v>46854.2383122918</v>
       </c>
       <c r="G6" t="n">
-        <v>40953.80104605495</v>
+        <v>40953.80104605498</v>
       </c>
       <c r="H6" t="n">
-        <v>-255.3491357483872</v>
+        <v>-255.3491357484017</v>
       </c>
       <c r="I6" t="n">
+        <v>57328.43800658327</v>
+      </c>
+      <c r="J6" t="n">
+        <v>57328.43800658327</v>
+      </c>
+      <c r="K6" t="n">
+        <v>57328.43800658327</v>
+      </c>
+      <c r="L6" t="n">
         <v>57328.43800658325</v>
       </c>
-      <c r="J6" t="n">
-        <v>57328.4380065833</v>
-      </c>
-      <c r="K6" t="n">
-        <v>57328.43800658325</v>
-      </c>
-      <c r="L6" t="n">
-        <v>57328.43800658331</v>
-      </c>
       <c r="M6" t="n">
-        <v>57328.43800658328</v>
+        <v>57328.43800658327</v>
       </c>
       <c r="N6" t="n">
         <v>57328.43800658327</v>
       </c>
       <c r="O6" t="n">
-        <v>56207.78959966078</v>
+        <v>56207.78959966082</v>
       </c>
       <c r="P6" t="n">
-        <v>46854.23831229177</v>
+        <v>46854.2383122918</v>
       </c>
     </row>
   </sheetData>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="O17" t="n">
-        <v>26.47527676494983</v>
-      </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="N18" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="O18" t="n">
         <v>26.47527676494983</v>
-      </c>
-      <c r="O18" t="n">
-        <v>27.59002526031614</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,7 +36215,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36607,7 +36607,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36680,10 +36680,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36841,7 +36841,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0.5532456285028686</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37789,7 +37789,7 @@
         <v>213.4242636173429</v>
       </c>
       <c r="N41" t="n">
-        <v>104.4315449177119</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37865,19 +37865,19 @@
         <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
-        <v>37.01765175063403</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="O42" t="n">
-        <v>213.4242636173429</v>
+        <v>78.17726300872559</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303580.0039790323</v>
+        <v>319233.1861841196</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3013503.893776015</v>
+        <v>2995243.613506389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20373567.14494819</v>
+        <v>20355670.24425592</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4790382.659738131</v>
+        <v>4813416.780476123</v>
       </c>
     </row>
     <row r="11">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="12">
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1570,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="16">
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,76 +1841,76 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.36130568012912</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C17" t="n">
+      <c r="X17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="Y17" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>24.30129424928645</v>
       </c>
     </row>
     <row r="18">
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T18" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="U18" t="n">
         <v>24.30129424928645</v>
       </c>
-      <c r="U18" t="n">
-        <v>27.59002526031614</v>
-      </c>
       <c r="V18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2008,50 +2008,50 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>19.72731862540289</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F19" t="n">
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>22.44875936050941</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>230.2038249569697</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>86.20649128496198</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>18.07547112307537</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2403,22 +2403,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>77.15040666004174</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>177.8653551378282</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="U26" t="n">
-        <v>241.0142888776591</v>
-      </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2643,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>144.7681739285099</v>
       </c>
       <c r="G27" t="n">
-        <v>11.01727716149734</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>81.6091538955025</v>
       </c>
       <c r="I30" t="n">
-        <v>58.77034251042111</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3032,16 +3032,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>212.285385643442</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>32.51853971732223</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>63.88882306452221</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>67.79063574379589</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3.26531605719669</v>
+        <v>174.1529726868368</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3585,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>32.02729053745298</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>142.8930380653092</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3639,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57.94462678914073</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="C17" t="n">
-        <v>30.07591440498301</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="D17" t="n">
-        <v>30.07591440498301</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="E17" t="n">
-        <v>2.207202020825291</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="F17" t="n">
-        <v>2.207202020825291</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="G17" t="n">
-        <v>2.207202020825291</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="H17" t="n">
-        <v>2.207202020825291</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="I17" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J17" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M17" t="n">
         <v>28.41772601812563</v>
-      </c>
-      <c r="L17" t="n">
-        <v>28.41772601812563</v>
-      </c>
-      <c r="M17" t="n">
-        <v>55.73185102583861</v>
       </c>
       <c r="N17" t="n">
         <v>55.73185102583861</v>
@@ -5534,31 +5534,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="W17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="X17" t="n">
-        <v>110.3601010412646</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="Y17" t="n">
-        <v>85.81333917329844</v>
+        <v>16.66234852056432</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5598,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L18" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M18" t="n">
-        <v>56.83545203625125</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N18" t="n">
-        <v>84.14957704396423</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O18" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P18" t="n">
         <v>110.3601010412646</v>
@@ -5616,19 +5616,19 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S18" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T18" t="n">
-        <v>85.81333917329844</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U18" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V18" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W18" t="n">
         <v>2.207202020825291</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.94462678914073</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="C19" t="n">
-        <v>57.94462678914073</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="D19" t="n">
-        <v>57.94462678914073</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="E19" t="n">
-        <v>30.07591440498301</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="F19" t="n">
         <v>2.207202020825291</v>
@@ -5689,34 +5689,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P19" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q19" t="n">
-        <v>108.4888536788635</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="R19" t="n">
-        <v>108.4888536788635</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="S19" t="n">
-        <v>108.4888536788635</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="T19" t="n">
-        <v>108.4888536788635</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="U19" t="n">
-        <v>108.4888536788635</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="V19" t="n">
-        <v>85.81333917329844</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="W19" t="n">
-        <v>85.81333917329844</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="X19" t="n">
-        <v>85.81333917329844</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.94462678914073</v>
+        <v>22.13378649092923</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>495.259035872464</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C20" t="n">
         <v>262.7299197543128</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V20" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W20" t="n">
-        <v>495.259035872464</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X20" t="n">
-        <v>495.259035872464</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y20" t="n">
-        <v>495.259035872464</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>245.0892324518013</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C21" t="n">
-        <v>245.0892324518013</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D21" t="n">
-        <v>245.0892324518013</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E21" t="n">
-        <v>245.0892324518013</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F21" t="n">
-        <v>245.0892324518013</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>106.3584070344168</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W21" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X21" t="n">
-        <v>452.8495312167552</v>
+        <v>570.195164680601</v>
       </c>
       <c r="Y21" t="n">
-        <v>245.0892324518013</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="22">
@@ -5947,7 +5947,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>735.8335372470253</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C24" t="n">
-        <v>735.8335372470253</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D24" t="n">
-        <v>586.8991275857741</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>509.8083066274956</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="W24" t="n">
-        <v>735.8335372470253</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="X24" t="n">
-        <v>735.8335372470253</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="Y24" t="n">
-        <v>735.8335372470253</v>
+        <v>281.5846883638847</v>
       </c>
     </row>
     <row r="25">
@@ -6130,10 +6130,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
         <v>829.5248650203655</v>
@@ -6254,19 +6254,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U26" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W26" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V26" t="n">
+      <c r="X26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
         <v>19.28114311021272</v>
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30.40970589960398</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C27" t="n">
-        <v>30.40970589960398</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="D27" t="n">
-        <v>30.40970589960398</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="E27" t="n">
-        <v>30.40970589960398</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="F27" t="n">
-        <v>30.40970589960398</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>446.0215048700907</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>238.1700046645579</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y27" t="n">
-        <v>30.40970589960398</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="28">
@@ -6534,7 +6534,7 @@
         <v>192.0142610363921</v>
       </c>
       <c r="H30" t="n">
-        <v>78.64512544397142</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6549,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>506.5265183822256</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>712.3810405894649</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>656.9516929332361</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>828.7289809166359</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>655.3116363673048</v>
       </c>
       <c r="T33" t="n">
-        <v>726.1056462496665</v>
+        <v>453.1250417260709</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>235.5553470967494</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>962.2293816994886</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="C35" t="n">
-        <v>962.2293816994886</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D35" t="n">
-        <v>962.2293816994886</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E35" t="n">
-        <v>962.2293816994886</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>506.5265183822256</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>712.3810405894649</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>962.2293816994886</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>962.2293816994886</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>962.2293816994886</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="T35" t="n">
-        <v>962.2293816994886</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="U35" t="n">
-        <v>962.2293816994886</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="V35" t="n">
-        <v>962.2293816994886</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="W35" t="n">
-        <v>962.2293816994886</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="X35" t="n">
-        <v>962.2293816994886</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="Y35" t="n">
-        <v>962.2293816994886</v>
+        <v>452.3709090732851</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>281.9841782386128</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>782.3092529910735</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>782.3092529910735</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>558.2198666437646</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>558.2198666437646</v>
       </c>
       <c r="V36" t="n">
-        <v>23.90796037760316</v>
+        <v>558.2198666437646</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>558.2198666437646</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>489.7444770035667</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>281.9841782386128</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>509.4769954460863</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="C38" t="n">
-        <v>509.4769954460863</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="D38" t="n">
-        <v>509.4769954460863</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="E38" t="n">
-        <v>266.0282188019862</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="F38" t="n">
-        <v>22.57944215788615</v>
+        <v>205.2136026847931</v>
       </c>
       <c r="G38" t="n">
-        <v>22.57944215788615</v>
+        <v>205.2136026847931</v>
       </c>
       <c r="H38" t="n">
-        <v>22.57944215788615</v>
+        <v>205.2136026847931</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>640.352991943436</v>
       </c>
       <c r="T38" t="n">
-        <v>752.9257720901863</v>
+        <v>640.352991943436</v>
       </c>
       <c r="U38" t="n">
-        <v>509.4769954460863</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="V38" t="n">
-        <v>509.4769954460863</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="W38" t="n">
-        <v>509.4769954460863</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="X38" t="n">
-        <v>509.4769954460863</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="Y38" t="n">
-        <v>509.4769954460863</v>
+        <v>422.7832973141145</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>210.869396638348</v>
+        <v>161.5679219008132</v>
       </c>
       <c r="C39" t="n">
-        <v>210.869396638348</v>
+        <v>161.5679219008132</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>161.5679219008132</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="V39" t="n">
-        <v>454.3181732824481</v>
+        <v>369.419422106346</v>
       </c>
       <c r="W39" t="n">
-        <v>210.869396638348</v>
+        <v>369.419422106346</v>
       </c>
       <c r="X39" t="n">
-        <v>210.869396638348</v>
+        <v>161.5679219008132</v>
       </c>
       <c r="Y39" t="n">
-        <v>210.869396638348</v>
+        <v>161.5679219008132</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="41">
@@ -7412,10 +7412,10 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>17.62165426160527</v>
+        <v>120.0889470003098</v>
       </c>
       <c r="L41" t="n">
-        <v>197.6975058462639</v>
+        <v>300.1647985849684</v>
       </c>
       <c r="M41" t="n">
         <v>408.9875268274333</v>
@@ -7494,16 +7494,16 @@
         <v>142.4315011472248</v>
       </c>
       <c r="L42" t="n">
+        <v>142.4315011472248</v>
+      </c>
+      <c r="M42" t="n">
         <v>353.7215221283943</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>565.0115431095638</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>776.3015640907333</v>
-      </c>
-      <c r="O42" t="n">
-        <v>853.6970544693717</v>
       </c>
       <c r="P42" t="n">
         <v>853.6970544693717</v>
@@ -7591,13 +7591,13 @@
         <v>151.6062315796582</v>
       </c>
       <c r="R43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="S43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="T43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="U43" t="n">
         <v>17.07394108938743</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
@@ -8705,7 +8705,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -8781,13 +8781,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,16 +8851,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
@@ -8942,7 +8942,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,13 +9009,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9024,7 +9024,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,16 +9088,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9164,16 +9164,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>246.5651278099304</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O17" t="n">
         <v>257.6882366820029</v>
@@ -9246,19 +9246,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>169.7240591823345</v>
+        <v>168.6093106869682</v>
       </c>
       <c r="N18" t="n">
         <v>158.9317373436494</v>
       </c>
       <c r="O18" t="n">
-        <v>169.0715212093943</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>438.6332444111135</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>229.6373335557741</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>164.7990931166928</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>438.6332444111135</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>143.9463056241383</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>283.1274823473447</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
-        <v>185.4193833999402</v>
+        <v>164.3368825942667</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.6430966734834</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>443.7704968446156</v>
+        <v>340.2681809469343</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>351.9786433972171</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>355.5582975393612</v>
@@ -11151,10 +11151,10 @@
         <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
-        <v>220.77350745317</v>
+        <v>356.0205080617874</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>212.1516704230558</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23039,7 +23039,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23063,10 +23063,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>357.155447408783</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23103,7 +23103,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>121.8247743700079</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23151,10 +23151,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>177.5983762105908</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23163,7 +23163,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>208.1006776791572</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>360.1674891792497</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23306,13 +23306,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="12">
@@ -23343,19 +23343,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>135.0787279711701</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23458,19 +23458,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>202.3252982336507</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>263.7526768722601</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23543,22 +23543,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>347.1647481942382</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23625,22 +23625,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>210.2342346651944</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="16">
@@ -23701,16 +23701,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>201.4502455527414</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>202.3252982336507</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23729,16 +23729,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23750,10 +23750,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>208.1145838902768</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23792,13 +23792,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y17" t="n">
-        <v>361.9366444067671</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="18">
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T18" t="n">
-        <v>175.8634344455351</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U18" t="n">
-        <v>198.3513568206587</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V18" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>117.8310227626151</v>
+        <v>125.6937293975284</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23929,16 +23929,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>229.6888839633186</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>135.0690668140378</v>
+        <v>145.0597660285826</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24063,13 +24063,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>26.02895295153448</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>187.6975140804021</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24291,22 +24291,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>80.4946737953592</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>22.29937355699337</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24494,22 +24494,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24531,10 +24531,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0.3010384648740114</v>
       </c>
       <c r="G27" t="n">
-        <v>126.3262400017133</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24774,10 +24774,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>30.62629034099396</v>
       </c>
       <c r="I30" t="n">
-        <v>30.62629034099397</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24920,16 +24920,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>142.397655977241</v>
+        <v>164.9640084614717</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>166.5363723892335</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>191.4820480586832</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>199.9087398321068</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,22 +25041,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>67.63929443532089</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>136.2759056302994</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,16 +25163,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,13 +25196,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>19.30103642703409</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25251,7 +25251,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25281,25 +25281,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>137.9823494596816</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25360,7 +25360,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25397,10 +25397,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>191.4820480586832</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,10 +25409,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>207.2105735132092</v>
+        <v>36.32291688356915</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25473,10 +25473,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>115.4177750271858</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>14.75204239009173</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25527,13 +25527,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762545</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762545</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762545</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351700.8745024338</v>
+        <v>351700.874502434</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>507028.2310008514</v>
+        <v>507028.2310008515</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>507028.2310008513</v>
+        <v>507028.2310008514</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>507028.2310008514</v>
+        <v>488505.1665306332</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>507028.2310008511</v>
+        <v>488505.1665306335</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>507028.2310008511</v>
+        <v>488505.1665306333</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>487081.0800200352</v>
+        <v>487081.0800200353</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="C2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="D2" t="n">
-        <v>69879.81359544017</v>
+        <v>74597.63547237261</v>
       </c>
       <c r="E2" t="n">
-        <v>69879.81359544017</v>
+        <v>74597.63547237264</v>
       </c>
       <c r="F2" t="n">
-        <v>69879.81359544017</v>
+        <v>74597.63547237263</v>
       </c>
       <c r="G2" t="n">
         <v>74945.90033124233</v>
@@ -26335,25 +26335,25 @@
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="K2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.437145366</v>
+        <v>104062.1476317649</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.437145366</v>
+        <v>104062.1476317649</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.437145366</v>
+        <v>104062.147631765</v>
       </c>
       <c r="O2" t="n">
-        <v>103759.0573236673</v>
+        <v>103759.0573236672</v>
       </c>
       <c r="P2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7562.01207347375</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
         <v>57583.78714233168</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23025.57528314837</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="C4" t="n">
-        <v>23025.57528314837</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="D4" t="n">
-        <v>23025.57528314837</v>
+        <v>23004.80940248714</v>
       </c>
       <c r="E4" t="n">
-        <v>23025.57528314837</v>
+        <v>23004.80940248714</v>
       </c>
       <c r="F4" t="n">
-        <v>23025.57528314837</v>
+        <v>23004.80940248714</v>
       </c>
       <c r="G4" t="n">
-        <v>24752.61367588639</v>
+        <v>23115.78358306613</v>
       </c>
       <c r="H4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="K4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>36022.33037502109</v>
+        <v>32393.64094770882</v>
       </c>
       <c r="M4" t="n">
-        <v>36022.33037502109</v>
+        <v>32393.64094770882</v>
       </c>
       <c r="N4" t="n">
-        <v>36022.33037502109</v>
+        <v>32393.64094770882</v>
       </c>
       <c r="O4" t="n">
-        <v>34575.07249607202</v>
+        <v>32297.06158368185</v>
       </c>
       <c r="P4" t="n">
-        <v>23025.57528314837</v>
+        <v>21501.48110628928</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="G5" t="n">
         <v>1677.473535827221</v>
@@ -26497,13 +26497,13 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="O5" t="n">
         <v>12976.19522793445</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13226.63831229177</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>13226.63831229177</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>13226.6383122918</v>
+        <v>8449.081311463757</v>
       </c>
       <c r="E6" t="n">
-        <v>46854.2383122918</v>
+        <v>50035.11236525195</v>
       </c>
       <c r="F6" t="n">
-        <v>46854.2383122918</v>
+        <v>50035.11236525193</v>
       </c>
       <c r="G6" t="n">
-        <v>40953.80104605498</v>
+        <v>49612.76865095562</v>
       </c>
       <c r="H6" t="n">
-        <v>-255.3491357484017</v>
+        <v>2117.134455014981</v>
       </c>
       <c r="I6" t="n">
-        <v>57328.43800658327</v>
+        <v>59700.92159734666</v>
       </c>
       <c r="J6" t="n">
-        <v>57328.43800658327</v>
+        <v>59700.92159734669</v>
       </c>
       <c r="K6" t="n">
-        <v>57328.43800658327</v>
+        <v>59700.92159734662</v>
       </c>
       <c r="L6" t="n">
-        <v>57328.43800658325</v>
+        <v>58572.551624928</v>
       </c>
       <c r="M6" t="n">
-        <v>57328.43800658327</v>
+        <v>58572.551624928</v>
       </c>
       <c r="N6" t="n">
-        <v>57328.43800658327</v>
+        <v>58572.55162492802</v>
       </c>
       <c r="O6" t="n">
-        <v>56207.78959966082</v>
+        <v>58485.80051205096</v>
       </c>
       <c r="P6" t="n">
-        <v>46854.2383122918</v>
+        <v>48378.33248915085</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26793,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
         <v>27.59002526031614</v>
@@ -26817,13 +26817,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
         <v>213.4242636173429</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
         <v>213.4242636173429</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
         <v>213.4242636173429</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>26.47527676494984</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>27.59002526031614</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N18" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="O18" t="n">
-        <v>26.47527676494983</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36841,7 +36841,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36917,16 +36917,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>208.2870111838408</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37084,7 +37084,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>91.0829537758999</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>22.20284867224837</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>208.2870111838408</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37321,7 +37321,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>9.971898209808115</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37549,13 +37549,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>53.02927092565796</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
-        <v>43.28534947792188</v>
+        <v>22.2028486722484</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5532456285028686</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>213.4242636173429</v>
+        <v>109.9219477196616</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37862,7 +37862,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>213.4242636173429</v>
@@ -37871,10 +37871,10 @@
         <v>213.4242636173429</v>
       </c>
       <c r="O42" t="n">
+        <v>213.4242636173429</v>
+      </c>
+      <c r="P42" t="n">
         <v>78.17726300872559</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
